--- a/Docs/Iteración 2/MS Project/Seguimiento del Cronograma del Sprint 2.xlsx
+++ b/Docs/Iteración 2/MS Project/Seguimiento del Cronograma del Sprint 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Desktop\Universidad\4º AÑO\PGPI-G1.15\Docs\Iteración 2\MS Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{888E1204-BB33-4546-A574-CB76B845E664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DC4F471-37D4-4F0E-B8DD-0042D2C0CD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E18B831-5940-48AD-8097-DB1AB8B93878}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0D380B52-958B-4BC7-99D4-648D0DDF380C}"/>
   </bookViews>
   <sheets>
     <sheet name="Gráfico1" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="22" r:id="rId3"/>
+    <pivotCache cacheId="28" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,9 +36,9 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{60A95008-A391-474C-90A5-E032D3A7AFC4}" sourceFile="D:\Documents and Settings\PKMACCT\My Documents\Assignment Usage.cub" keepAlive="1" name="Assignment Usage" type="5" refreshedVersion="8">
+  <connection id="1" xr16:uid="{767F9439-19A4-4957-AF13-0E36435552FF}" sourceFile="D:\Documents and Settings\PKMACCT\My Documents\Assignment Usage.cub" keepAlive="1" name="Assignment Usage" type="5" refreshedVersion="8">
     <dbPr connection="Provider=MSOLAP.2;Persist Security Info=True;Data Source=D:\Documents and Settings\PKMACCT\My Documents\Assignment Usage.cub;Client Cache Size=25;Auto Synch Period=10000" command="ProjectReport" commandType="1"/>
-    <olapPr local="1" localConnection="Provider=MSOLAP.8;Persist Security Info=True;Data Source=C:\Users\angel\AppData\Local\Temp\VisualReportsTemporaryData\{0868b5f1-b3ae-ef11-905f-c38c60dbbcf3}\AssignmentTP.cub;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error;Update Isolation Level=2" rowDrillCount="1000" serverFill="0" serverNumberFormat="0" serverFont="0" serverFontColor="0"/>
+    <olapPr local="1" localConnection="Provider=MSOLAP.8;Persist Security Info=True;Data Source=C:\Users\angel\AppData\Local\Temp\VisualReportsTemporaryData\{1c69206c-3aaf-ef11-905f-c38c60dbbcf3}\AssignmentTP.cub;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error;Update Isolation Level=2" rowDrillCount="1000" serverFill="0" serverNumberFormat="0" serverFont="0" serverFontColor="0"/>
   </connection>
 </connections>
 </file>
@@ -107,43 +107,43 @@
     <t>Semana</t>
   </si>
   <si>
+    <t>Semana 41</t>
+  </si>
+  <si>
+    <t>Semana 42</t>
+  </si>
+  <si>
+    <t>Semana 43</t>
+  </si>
+  <si>
+    <t>Semana 44</t>
+  </si>
+  <si>
+    <t>Semana 45</t>
+  </si>
+  <si>
+    <t>Semana 46</t>
+  </si>
+  <si>
+    <t>Semana 47</t>
+  </si>
+  <si>
+    <t>Semana 48</t>
+  </si>
+  <si>
+    <t>Semana 49</t>
+  </si>
+  <si>
+    <t>Semana 50</t>
+  </si>
+  <si>
+    <t>Total T4</t>
+  </si>
+  <si>
     <t>Semana 40</t>
   </si>
   <si>
     <t>Total T3</t>
-  </si>
-  <si>
-    <t>Semana 41</t>
-  </si>
-  <si>
-    <t>Semana 42</t>
-  </si>
-  <si>
-    <t>Semana 43</t>
-  </si>
-  <si>
-    <t>Semana 44</t>
-  </si>
-  <si>
-    <t>Semana 45</t>
-  </si>
-  <si>
-    <t>Semana 46</t>
-  </si>
-  <si>
-    <t>Semana 47</t>
-  </si>
-  <si>
-    <t>Semana 48</t>
-  </si>
-  <si>
-    <t>Semana 49</t>
-  </si>
-  <si>
-    <t>Semana 50</t>
-  </si>
-  <si>
-    <t>Total T4</t>
   </si>
 </sst>
 </file>
@@ -436,6 +436,32 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -452,7 +478,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Trabajo previsto</c:v>
+                  <c:v>Trabajo real</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -530,35 +556,35 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55</c:v>
+                  <c:v>50.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46</c:v>
+                  <c:v>55.714285714285715</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>68</c:v>
+                  <c:v>25.916666666666668</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>102.25</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>81.75</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>158</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1E24-426B-82E0-AA1E2674C515}"/>
+              <c16:uniqueId val="{00000000-7AA0-467F-A169-D792EEE12160}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -571,7 +597,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Trabajo real</c:v>
+                  <c:v>Trabajo previsto</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -649,35 +675,35 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50.25</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55.714285714285715</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.916666666666668</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.5</c:v>
+                  <c:v>102.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>81.75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1E24-426B-82E0-AA1E2674C515}"/>
+              <c16:uniqueId val="{00000001-7AA0-467F-A169-D792EEE12160}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -690,11 +716,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1323912303"/>
+        <c:axId val="1436614415"/>
         <c:axId val="1"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1323912303"/>
+        <c:axId val="1436614415"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -763,7 +789,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1323912303"/>
+        <c:crossAx val="1436614415"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -791,7 +817,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{4ACEE887-EF7E-45F1-A873-F45DB9733982}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{80F15717-D403-4023-B0C0-6104974F4C8A}">
   <sheetPr/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0"/>
@@ -813,7 +839,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{002655B7-B327-35E9-D1F8-4E356FE13FC2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9C03F23-F958-EDE9-7A37-734F82E56572}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -837,10 +863,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Angel Garcia" refreshedDate="45626.071661921298" createdVersion="8" refreshedVersion="8" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{EA6F061C-E4DE-4B0C-9F42-E902DF4FC295}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Angel Garcia" refreshedDate="45626.739919097221" createdVersion="8" refreshedVersion="8" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{EC287A71-6490-494F-9884-DEFEE2674D33}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="48">
-    <cacheField name="[Measures].[Trabajo previsto]" caption="Trabajo previsto" numFmtId="0" hierarchy="76"/>
     <cacheField name="[Measures].[Trabajo real]" caption="Trabajo real" numFmtId="0" hierarchy="70"/>
     <cacheField name="[Hora].[Semanal].[Año]" caption="Año" numFmtId="0" level="1">
       <sharedItems count="1">
@@ -997,26 +1022,27 @@
     <cacheField name="[Tareas].[Tareas].[Variación de fin]" caption="Variación de fin" propertyName="Variación de fin" numFmtId="0" hierarchy="2" level="32767" memberPropertyField="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
+    <cacheField name="[Measures].[Trabajo previsto]" caption="Trabajo previsto" numFmtId="0" hierarchy="76" level="32767"/>
   </cacheFields>
   <cacheHierarchies count="85">
     <cacheHierarchy uniqueName="[Hora].[Semanal]" caption="Semanal" time="1" defaultMemberUniqueName="[Hora].[Semanal].[Todos]" allUniqueName="[Hora].[Semanal].[Todos]" dimensionUniqueName="[Hora]" displayFolder="" count="4" unbalanced="0">
       <fieldsUsage count="4">
         <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
         <fieldUsage x="2"/>
         <fieldUsage x="3"/>
-        <fieldUsage x="4"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Recursos].[Recursos]" caption="Recursos" defaultMemberUniqueName="[Recursos].[Recursos].[Todos]" allUniqueName="[Recursos].[Recursos].[Todos]" dimensionUniqueName="[Recursos]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Tareas].[Tareas]" caption="Tareas" defaultMemberUniqueName="[Tareas].[Tareas].[Todos]" allUniqueName="[Tareas].[Tareas].[Todos]" dimensionUniqueName="[Tareas]" displayFolder="" count="7" unbalanced="1">
       <fieldsUsage count="7">
         <fieldUsage x="-1"/>
+        <fieldUsage x="4"/>
         <fieldUsage x="5"/>
         <fieldUsage x="6"/>
         <fieldUsage x="7"/>
         <fieldUsage x="8"/>
         <fieldUsage x="9"/>
-        <fieldUsage x="10"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Tipo].[Tipo]" caption="Tipo" defaultMemberUniqueName="[Tipo].[Tipo].[Todos]" allUniqueName="[Tipo].[Tipo].[Todos]" dimensionUniqueName="[Tipo]" displayFolder="" count="0" unbalanced="0"/>
@@ -1088,7 +1114,7 @@
     <cacheHierarchy uniqueName="[Measures].[Trab_real de horas extra]" caption="Trab_real de horas extra" measure="1" displayFolder="" measureGroup="Valores" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Trabajo real]" caption="Trabajo real" measure="1" displayFolder="" measureGroup="Valores" count="0" oneField="1">
       <fieldsUsage count="1">
-        <fieldUsage x="1"/>
+        <fieldUsage x="0"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Costo presupuestado]" caption="Costo presupuestado" measure="1" displayFolder="" measureGroup="Valores" count="0"/>
@@ -1098,7 +1124,7 @@
     <cacheHierarchy uniqueName="[Measures].[Costo de línea base]" caption="Costo de línea base" measure="1" displayFolder="" measureGroup="Valores" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Trabajo previsto]" caption="Trabajo previsto" measure="1" displayFolder="" measureGroup="Valores" count="0" oneField="1">
       <fieldsUsage count="1">
-        <fieldUsage x="0"/>
+        <fieldUsage x="47"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Costo]" caption="Costo" measure="1" displayFolder="" measureGroup="Valores" count="0"/>
@@ -1136,10 +1162,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AF74F7DC-43A3-4AA6-AFE8-DBF346AA78F0}" name="PivotTable3" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Datos" grandTotalCaption="Total General" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" chartFormat="1" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FA65B494-9D28-4149-AE41-B0711995E53D}" name="PivotTable3" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Datos" grandTotalCaption="Total General" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" chartFormat="1" fieldListSortAscending="1">
   <location ref="A3:E19" firstHeaderRow="1" firstDataRow="2" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="48">
-    <pivotField name="Trabajo previsto" dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
     <pivotField name="Trabajo real" dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
     <pivotField name="Año" axis="axisRow" subtotalCaption="Total ?" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" dataSourceSort="1">
       <items count="2">
@@ -1212,11 +1237,12 @@
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="3">
+    <field x="1"/>
     <field x="2"/>
     <field x="3"/>
-    <field x="4"/>
   </rowFields>
   <rowItems count="15">
     <i>
@@ -1280,14 +1306,14 @@
     </i>
   </colItems>
   <pageFields count="1">
-    <pageField fld="5" hier="2" name="[Tareas].[Tareas].[Todos]" cap="Todos"/>
+    <pageField fld="4" hier="2" name="[Tareas].[Tareas].[Todos]" cap="Todos"/>
   </pageFields>
   <dataFields count="2">
-    <dataField name="Trabajo previsto" fld="0" baseField="0" baseItem="0"/>
-    <dataField name="Trabajo real" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Trabajo real" fld="0" baseField="0" baseItem="0"/>
+    <dataField fld="47" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="2">
-    <chartFormat chart="0" format="1" series="1">
+    <chartFormat chart="0" format="3" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -1296,7 +1322,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="3" series="1">
+    <chartFormat chart="0" format="5" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -1311,6 +1337,7 @@
     <pivotHierarchy includeNewItemsInFilter="1"/>
     <pivotHierarchy>
       <mps count="37">
+        <mp field="10"/>
         <mp field="11"/>
         <mp field="12"/>
         <mp field="13"/>
@@ -1347,7 +1374,6 @@
         <mp field="44"/>
         <mp field="45"/>
         <mp field="46"/>
-        <mp field="47"/>
       </mps>
     </pivotHierarchy>
     <pivotHierarchy includeNewItemsInFilter="1"/>
@@ -1734,7 +1760,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F1908A-FF93-4546-8C82-C8224A04FFFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3A9347-4CF5-44DF-8B83-622BF558E208}">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1746,8 +1772,8 @@
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="256" width="9.140625" customWidth="1"/>
   </cols>
@@ -1780,10 +1806,10 @@
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1794,7 +1820,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D5" s="6">
         <v>0</v>
@@ -1806,7 +1832,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="6">
@@ -1822,7 +1848,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" s="6">
         <v>0</v>
@@ -1835,7 +1861,7 @@
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" s="10">
         <v>0</v>
@@ -1848,117 +1874,117 @@
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9" s="10">
+        <v>50.25</v>
+      </c>
+      <c r="E9" s="11">
         <v>55</v>
-      </c>
-      <c r="E9" s="11">
-        <v>50.25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" s="10">
+        <v>21</v>
+      </c>
+      <c r="E10" s="11">
         <v>22</v>
-      </c>
-      <c r="E10" s="11">
-        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D11" s="10">
+        <v>55.714285714285715</v>
+      </c>
+      <c r="E11" s="11">
         <v>46</v>
-      </c>
-      <c r="E11" s="11">
-        <v>55.714285714285715</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D12" s="10">
+        <v>25.916666666666668</v>
+      </c>
+      <c r="E12" s="11">
         <v>68</v>
-      </c>
-      <c r="E12" s="11">
-        <v>25.916666666666668</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D13" s="10">
+        <v>31.5</v>
+      </c>
+      <c r="E13" s="11">
         <v>102.25</v>
-      </c>
-      <c r="E13" s="11">
-        <v>24.5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D14" s="10">
+        <v>2</v>
+      </c>
+      <c r="E14" s="11">
         <v>81.75</v>
-      </c>
-      <c r="E14" s="11">
-        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D15" s="10">
+        <v>0</v>
+      </c>
+      <c r="E15" s="11">
         <v>158</v>
-      </c>
-      <c r="E15" s="11">
-        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D16" s="10">
+        <v>0</v>
+      </c>
+      <c r="E16" s="11">
         <v>19</v>
-      </c>
-      <c r="E16" s="11">
-        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="6">
+        <v>186.38095238095238</v>
+      </c>
+      <c r="E17" s="7">
         <v>552</v>
-      </c>
-      <c r="E17" s="7">
-        <v>179.38095238095238</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1968,10 +1994,10 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="6">
+        <v>186.38095238095238</v>
+      </c>
+      <c r="E18" s="7">
         <v>552</v>
-      </c>
-      <c r="E18" s="7">
-        <v>179.38095238095238</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1981,10 +2007,10 @@
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
       <c r="D19" s="14">
+        <v>186.38095238095238</v>
+      </c>
+      <c r="E19" s="15">
         <v>552</v>
-      </c>
-      <c r="E19" s="15">
-        <v>179.38095238095238</v>
       </c>
     </row>
   </sheetData>
